--- a/aet_sample_fixed_hss_128.xlsx
+++ b/aet_sample_fixed_hss_128.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="64" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +460,8 @@
     <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -564,15 +565,15 @@
         <v>17879310</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F10" si="0">D4/E4</f>
+        <f t="shared" ref="F4:F7" si="0">D4/E4</f>
         <v>8169.1414675957849</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="1">C4/B4</f>
+        <f t="shared" ref="G4:G7" si="1">C4/B4</f>
         <v>1.1387096774193548</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H10" si="2">E4/C4</f>
+        <f t="shared" ref="H4:H7" si="2">E4/C4</f>
         <v>50649.603399433428</v>
       </c>
     </row>
@@ -717,7 +718,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +727,8 @@
     <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -983,7 +985,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1249,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
